--- a/biology/Zoologie/Engoulevent_oreillard/Engoulevent_oreillard.xlsx
+++ b/biology/Zoologie/Engoulevent_oreillard/Engoulevent_oreillard.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Lyncornis macrotis
 L'Engoulevent oreillard (Lyncornis macrotis) est une espèce d'oiseaux de la famille des Caprimulgidae.
-C'est le plus grand des engoulevents au monde[1].
+C'est le plus grand des engoulevents au monde.
 </t>
         </is>
       </c>
@@ -513,7 +525,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce vit au Bangladesh, au Cambodge, en Chine, en Inde, en Indonésie, au Laos, en Malaisie, au Myanmar, aux Philippines, en Thaïlande et au Vietnam.
 </t>
@@ -544,7 +558,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est un oiseau des forêts tropicales.
 On le trouve dans des forêts vierges à proximité de cours d'eau, dans des forêts secondaires, à la lisière des bois, dans des broussailles, dans des clairières et des prairies jusqu'à une altitude de 1000 m.
@@ -576,11 +592,13 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">L'engoulevent oreillard peut mesurer jusqu'à 40 cm de longueur. Il pèse jusqu'à 150 g.
 Il est actif du crépuscule à l'aube. Pendant la journée, il peut se percher à plat le long d'une branche pour se camoufler.
-On l'appelle en Thaïlande l'oiseau géant qui attrape les moustiques (นกตบยุงยักษ์, nok top yung yak)[2].
+On l'appelle en Thaïlande l'oiseau géant qui attrape les moustiques (นกตบยุงยักษ์, nok top yung yak).
 </t>
         </is>
       </c>
@@ -609,7 +627,9 @@
           <t>Régime alimentaire</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est un oiseau nocturne insectivore.
 Il mange des papillons de nuit, des coléoptères, des punaises, des cigales et des termites.
@@ -641,7 +661,9 @@
           <t>Nidification</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">L'engoulevent oreillard ne construit pas de nid.
 Il dépose directement son unique œuf sur une litière de feuilles mortes ou sur le sol nu, à l'abri dissimulé sous un buisson épais dans une zone légèrement boisée ou dans un massif de bambous d'une jungle de bambous.
@@ -673,7 +695,9 @@
           <t>Chant</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">
 </t>
@@ -704,7 +728,9 @@
           <t>Culture</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t xml:space="preserve">Dans son roman, «  Psychopompe » (2023), Amélie Nothomb s’identifie à un engoulevent oreillard.
 </t>
